--- a/cheat_sheet.xlsx
+++ b/cheat_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kompas\git_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E793404-DE54-4770-A916-AF1F75FD1FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDBE9FC-4511-49DD-AE86-48811E04CA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>command</t>
   </si>
@@ -58,6 +58,24 @@
   </si>
   <si>
     <t>git commit, I to insert, :wq to commit</t>
+  </si>
+  <si>
+    <t>git rm -cached &lt;file&gt;</t>
+  </si>
+  <si>
+    <t>Remove a file from the repo</t>
+  </si>
+  <si>
+    <t>git branch &lt;name&gt;</t>
+  </si>
+  <si>
+    <t>Makes a new branch</t>
+  </si>
+  <si>
+    <t>git checkout &lt;name&gt;</t>
+  </si>
+  <si>
+    <t>Change branch</t>
   </si>
 </sst>
 </file>
@@ -375,16 +393,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="30.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.3671875" customWidth="1"/>
+    <col min="1" max="1" width="30.3671875" customWidth="1"/>
+    <col min="2" max="2" width="28.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -435,6 +453,30 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
